--- a/stocks/p58.xlsx
+++ b/stocks/p58.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\sync_ck\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7282005C-A9B0-4BAB-AC30-B78143D84D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E61497-8DA7-4A33-88CF-2D47CA46BC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1035" windowWidth="17580" windowHeight="14415" xr2:uid="{373A2945-AAB6-4A51-A318-A94B3D393DC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{373A2945-AAB6-4A51-A318-A94B3D393DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="p58" sheetId="1" r:id="rId1"/>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2F2BDB-EC7A-4961-A4D9-5A9255939874}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
